--- a/Code/Results/Cases/Case_0_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.364785772020503</v>
+        <v>4.920742638328592</v>
       </c>
       <c r="D2">
-        <v>6.165537928868067</v>
+        <v>9.667037446484882</v>
       </c>
       <c r="E2">
-        <v>10.36557683021656</v>
+        <v>13.75795227573954</v>
       </c>
       <c r="F2">
-        <v>31.70489571549746</v>
+        <v>30.9608575837635</v>
       </c>
       <c r="G2">
-        <v>43.01400288663956</v>
+        <v>33.36414497991077</v>
       </c>
       <c r="H2">
-        <v>11.58897704700385</v>
+        <v>14.37340777224141</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.434892672696295</v>
+        <v>9.732282694591145</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.51433923721522</v>
+        <v>22.74505173743368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.846240073620809</v>
+        <v>4.74956410384177</v>
       </c>
       <c r="D3">
-        <v>6.048698797235089</v>
+        <v>9.673078951589259</v>
       </c>
       <c r="E3">
-        <v>9.977553410068722</v>
+        <v>13.72986351928126</v>
       </c>
       <c r="F3">
-        <v>29.88221118165859</v>
+        <v>30.60052972713553</v>
       </c>
       <c r="G3">
-        <v>40.18218401640802</v>
+        <v>32.53886467159906</v>
       </c>
       <c r="H3">
-        <v>11.09029375721317</v>
+        <v>14.3199452415204</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.280239332589725</v>
+        <v>9.734587955838133</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.25644384584416</v>
+        <v>22.51172477890332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.510974216737149</v>
+        <v>4.642857908240282</v>
       </c>
       <c r="D4">
-        <v>5.979495436363885</v>
+        <v>9.678311898181548</v>
       </c>
       <c r="E4">
-        <v>9.739703251857042</v>
+        <v>13.71559754511369</v>
       </c>
       <c r="F4">
-        <v>28.73150908099826</v>
+        <v>30.38616264653964</v>
       </c>
       <c r="G4">
-        <v>38.37358994555436</v>
+        <v>32.03238208946689</v>
       </c>
       <c r="H4">
-        <v>10.78186066665678</v>
+        <v>14.2903671573651</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.187915224630939</v>
+        <v>9.737749318922226</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.46415555633373</v>
+        <v>22.37365562155597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.370057459862583</v>
+        <v>4.599049569503739</v>
       </c>
       <c r="D5">
-        <v>5.951945167479793</v>
+        <v>9.680827631216973</v>
       </c>
       <c r="E5">
-        <v>9.642994901309301</v>
+        <v>13.71053700801866</v>
       </c>
       <c r="F5">
-        <v>28.2550887415574</v>
+        <v>30.30063607324186</v>
       </c>
       <c r="G5">
-        <v>37.61929521263315</v>
+        <v>31.82639236883861</v>
       </c>
       <c r="H5">
-        <v>10.65576510017539</v>
+        <v>14.27913879270443</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.150977475390559</v>
+        <v>9.739476756589823</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.13660032291968</v>
+        <v>22.31875788180995</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.34639763242247</v>
+        <v>4.591758020446794</v>
       </c>
       <c r="D6">
-        <v>5.947410125641308</v>
+        <v>9.681268518401264</v>
       </c>
       <c r="E6">
-        <v>9.626953351003953</v>
+        <v>13.70974227467619</v>
       </c>
       <c r="F6">
-        <v>28.17554152492359</v>
+        <v>30.2865478281831</v>
       </c>
       <c r="G6">
-        <v>37.49301260087029</v>
+        <v>31.79222273498842</v>
       </c>
       <c r="H6">
-        <v>10.6348074696742</v>
+        <v>14.27732437483258</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.144886034409772</v>
+        <v>9.739790120798043</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.08193759435202</v>
+        <v>22.30972639537169</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.509091211159712</v>
+        <v>4.642268300577557</v>
       </c>
       <c r="D7">
-        <v>5.979121232817327</v>
+        <v>9.67834427424569</v>
       </c>
       <c r="E7">
-        <v>9.73839796459181</v>
+        <v>13.71552624415198</v>
       </c>
       <c r="F7">
-        <v>28.72511361591265</v>
+        <v>30.38500166663745</v>
       </c>
       <c r="G7">
-        <v>38.3634867452211</v>
+        <v>32.02960193277704</v>
       </c>
       <c r="H7">
-        <v>10.78016152106607</v>
+        <v>14.2902123775646</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.187414265150994</v>
+        <v>9.737770837578884</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.45975654532549</v>
+        <v>22.37290964086506</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.189463573577084</v>
+        <v>4.862097684253725</v>
       </c>
       <c r="D8">
-        <v>6.124733252463925</v>
+        <v>9.668804505872895</v>
       </c>
       <c r="E8">
-        <v>10.23177039844088</v>
+        <v>13.74765091334335</v>
       </c>
       <c r="F8">
-        <v>31.08321427605453</v>
+        <v>30.8352511758388</v>
       </c>
       <c r="G8">
-        <v>42.05221893137318</v>
+        <v>33.07974150062982</v>
       </c>
       <c r="H8">
-        <v>11.41758284437551</v>
+        <v>14.35430495193123</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.381035107719953</v>
+        <v>9.732715306555376</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.08492388628727</v>
+        <v>22.66355957609658</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.392105458334671</v>
+        <v>5.277361014224274</v>
       </c>
       <c r="D9">
-        <v>6.429839005012809</v>
+        <v>9.662173792963259</v>
       </c>
       <c r="E9">
-        <v>11.1979779181301</v>
+        <v>13.83411694412124</v>
       </c>
       <c r="F9">
-        <v>35.4432677183291</v>
+        <v>31.76813656619898</v>
       </c>
       <c r="G9">
-        <v>48.79131590123979</v>
+        <v>35.12644522169583</v>
       </c>
       <c r="H9">
-        <v>12.64412572632529</v>
+        <v>14.50535820220195</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.780686767862501</v>
+        <v>9.736643243213058</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.10340968549683</v>
+        <v>23.2719534676994</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.198928699467043</v>
+        <v>5.569097360695009</v>
       </c>
       <c r="D10">
-        <v>6.665240540989529</v>
+        <v>9.664645213267436</v>
       </c>
       <c r="E10">
-        <v>11.90226608419378</v>
+        <v>13.9116687983004</v>
       </c>
       <c r="F10">
-        <v>38.47425587020181</v>
+        <v>32.4776198614901</v>
       </c>
       <c r="G10">
-        <v>53.43584814689495</v>
+        <v>36.60406146725428</v>
       </c>
       <c r="H10">
-        <v>13.52519136752951</v>
+        <v>14.63119705848083</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.085429777128108</v>
+        <v>9.747943953925208</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.39675231290635</v>
+        <v>23.73848429676602</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.550124647747777</v>
+        <v>5.69825738323224</v>
       </c>
       <c r="D11">
-        <v>6.774660461597386</v>
+        <v>9.66735770262812</v>
       </c>
       <c r="E11">
-        <v>12.22079331499512</v>
+        <v>13.94992080461271</v>
       </c>
       <c r="F11">
-        <v>39.87508139136635</v>
+        <v>32.80423388496732</v>
       </c>
       <c r="G11">
-        <v>55.47178374425496</v>
+        <v>37.26706215651704</v>
       </c>
       <c r="H11">
-        <v>13.92094424818168</v>
+        <v>14.69152319190209</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.226337152865904</v>
+        <v>9.754903559497089</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.45219724032802</v>
+        <v>23.95410895876937</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.68090981255901</v>
+        <v>5.746609374124008</v>
       </c>
       <c r="D12">
-        <v>6.81642454909017</v>
+        <v>9.668612479726315</v>
       </c>
       <c r="E12">
-        <v>12.34111357270749</v>
+        <v>13.96482610652025</v>
       </c>
       <c r="F12">
-        <v>40.41070600877292</v>
+        <v>32.92835452901541</v>
       </c>
       <c r="G12">
-        <v>56.23200170232584</v>
+        <v>37.51653606913305</v>
       </c>
       <c r="H12">
-        <v>14.07005371619682</v>
+        <v>14.71479642540413</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.280017550329244</v>
+        <v>9.757799456284602</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.84608801258901</v>
+        <v>24.03617626535203</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.652839759781358</v>
+        <v>5.73622142367559</v>
       </c>
       <c r="D13">
-        <v>6.807415332874801</v>
+        <v>9.668332131241547</v>
       </c>
       <c r="E13">
-        <v>12.31521405763123</v>
+        <v>13.96159742434258</v>
       </c>
       <c r="F13">
-        <v>40.2956643087217</v>
+        <v>32.9016052534456</v>
       </c>
       <c r="G13">
-        <v>56.06874741963035</v>
+        <v>37.46288220902905</v>
       </c>
       <c r="H13">
-        <v>14.03797400803656</v>
+        <v>14.70976526868477</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.268442223191764</v>
+        <v>9.757164209302688</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.76151053455065</v>
+        <v>24.0184843198436</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.560928185684103</v>
+        <v>5.702246767003851</v>
       </c>
       <c r="D14">
-        <v>6.778089846576147</v>
+        <v>9.66745637695263</v>
       </c>
       <c r="E14">
-        <v>12.23069824372679</v>
+        <v>13.95113869827606</v>
       </c>
       <c r="F14">
-        <v>39.91928965050477</v>
+        <v>32.81443723296751</v>
       </c>
       <c r="G14">
-        <v>55.53454068085566</v>
+        <v>37.28761987037166</v>
       </c>
       <c r="H14">
-        <v>13.93322674410256</v>
+        <v>14.69342937958463</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.230747030853678</v>
+        <v>9.755136593949459</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.48471761170044</v>
+        <v>23.96085279118099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.504344741312375</v>
+        <v>5.681362318579184</v>
       </c>
       <c r="D15">
-        <v>6.760169869051513</v>
+        <v>9.666949569670352</v>
       </c>
       <c r="E15">
-        <v>12.17889029670102</v>
+        <v>13.94478690389392</v>
       </c>
       <c r="F15">
-        <v>39.68782433347764</v>
+        <v>32.76109802074144</v>
       </c>
       <c r="G15">
-        <v>55.2059345215247</v>
+        <v>37.18005186979804</v>
       </c>
       <c r="H15">
-        <v>13.8689674987566</v>
+        <v>14.68347861846556</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.207699490713313</v>
+        <v>9.75392850268393</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.31442678986123</v>
+        <v>23.92560366731032</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.175664622077132</v>
+        <v>5.560580797131274</v>
       </c>
       <c r="D16">
-        <v>6.658136028609543</v>
+        <v>9.664499841887627</v>
       </c>
       <c r="E16">
-        <v>11.88140903223816</v>
+        <v>13.90922814636433</v>
       </c>
       <c r="F16">
-        <v>38.38586603059876</v>
+        <v>32.456342647335</v>
       </c>
       <c r="G16">
-        <v>53.30127262033228</v>
+        <v>36.5605245828022</v>
       </c>
       <c r="H16">
-        <v>13.49922346174128</v>
+        <v>14.6273154247838</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.076266351515613</v>
+        <v>9.747525637272311</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.32695650319792</v>
+        <v>23.72445479040498</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.970024188363061</v>
+        <v>5.485539969987388</v>
       </c>
       <c r="D17">
-        <v>6.596133767417789</v>
+        <v>9.66340328699247</v>
       </c>
       <c r="E17">
-        <v>11.6984093919162</v>
+        <v>13.88817041975872</v>
       </c>
       <c r="F17">
-        <v>37.60699678779509</v>
+        <v>32.27029187686014</v>
       </c>
       <c r="G17">
-        <v>52.113329094103</v>
+        <v>36.17791568812815</v>
       </c>
       <c r="H17">
-        <v>13.27107680130514</v>
+        <v>14.59364058654361</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.996213771912672</v>
+        <v>9.744062813389009</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.71066865462047</v>
+        <v>23.60187428054169</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.850250472442962</v>
+        <v>5.442046567105601</v>
       </c>
       <c r="D18">
-        <v>6.560691653269559</v>
+        <v>9.662922122700735</v>
       </c>
       <c r="E18">
-        <v>11.59297877625586</v>
+        <v>13.87633891779286</v>
       </c>
       <c r="F18">
-        <v>37.1554321120307</v>
+        <v>32.16365129537095</v>
       </c>
       <c r="G18">
-        <v>51.42279547997843</v>
+        <v>35.95700053572275</v>
       </c>
       <c r="H18">
-        <v>13.13937776338449</v>
+        <v>14.57456264014794</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.950384065235789</v>
+        <v>9.74224236600921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.35227802940335</v>
+        <v>23.53169342163405</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.809438333015153</v>
+        <v>5.427264976841309</v>
       </c>
       <c r="D19">
-        <v>6.548729594575842</v>
+        <v>9.6627849147264</v>
       </c>
       <c r="E19">
-        <v>11.55725317758367</v>
+        <v>13.8723813411688</v>
       </c>
       <c r="F19">
-        <v>37.00192508146155</v>
+        <v>32.12761190950916</v>
       </c>
       <c r="G19">
-        <v>51.18773752737192</v>
+        <v>35.88206529527471</v>
       </c>
       <c r="H19">
-        <v>13.09470638681006</v>
+        <v>14.56815355859894</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.934904021456354</v>
+        <v>9.741655441399795</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.23025514653917</v>
+        <v>23.50798931408281</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.992069167343645</v>
+        <v>5.493562905250963</v>
       </c>
       <c r="D20">
-        <v>6.602711309067113</v>
+        <v>9.663504544996401</v>
       </c>
       <c r="E20">
-        <v>11.71790832446876</v>
+        <v>13.8903830880996</v>
       </c>
       <c r="F20">
-        <v>37.69027913697855</v>
+        <v>32.29005976310948</v>
       </c>
       <c r="G20">
-        <v>52.24053707386857</v>
+        <v>36.21873491593509</v>
       </c>
       <c r="H20">
-        <v>13.29541285574273</v>
+        <v>14.59719531999442</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.004713376579462</v>
+        <v>9.744413717773387</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.77667784349824</v>
+        <v>23.61489016423073</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.587984090680836</v>
+        <v>5.712241443374235</v>
       </c>
       <c r="D21">
-        <v>6.786694554492172</v>
+        <v>9.667707436493219</v>
       </c>
       <c r="E21">
-        <v>12.25553086327319</v>
+        <v>13.95419934077838</v>
       </c>
       <c r="F21">
-        <v>40.03003239495557</v>
+        <v>32.84002960602479</v>
       </c>
       <c r="G21">
-        <v>55.69173898330444</v>
+        <v>37.33914387723872</v>
       </c>
       <c r="H21">
-        <v>13.96401410003993</v>
+        <v>14.69821609815423</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.24181030112885</v>
+        <v>9.755725095049417</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.5661737377751</v>
+        <v>23.97776989354938</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.964633318728588</v>
+        <v>5.85188934449856</v>
       </c>
       <c r="D22">
-        <v>6.908856399018735</v>
+        <v>9.671780550157157</v>
       </c>
       <c r="E22">
-        <v>12.60515400898504</v>
+        <v>13.99835171587853</v>
       </c>
       <c r="F22">
-        <v>41.57596472994622</v>
+        <v>33.20197221035583</v>
       </c>
       <c r="G22">
-        <v>57.88485471674147</v>
+        <v>38.06201678356244</v>
       </c>
       <c r="H22">
-        <v>14.41641332740512</v>
+        <v>14.7667327204538</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.398645020263138</v>
+        <v>9.764635163502575</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.70211196851891</v>
+        <v>24.21731728487537</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.764755994518625</v>
+        <v>5.777670146970701</v>
       </c>
       <c r="D23">
-        <v>6.843482007667332</v>
+        <v>9.669485582652015</v>
       </c>
       <c r="E23">
-        <v>12.41871867246664</v>
+        <v>13.9745656859514</v>
       </c>
       <c r="F23">
-        <v>40.75460284259941</v>
+        <v>33.00860570262192</v>
       </c>
       <c r="G23">
-        <v>56.71994001804755</v>
+        <v>37.67714822793401</v>
       </c>
       <c r="H23">
-        <v>14.16612312251335</v>
+        <v>14.72994077576603</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.314767653528604</v>
+        <v>9.759741260557602</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.09884570571354</v>
+        <v>24.08927243296216</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.98210746026051</v>
+        <v>5.489936827226254</v>
       </c>
       <c r="D24">
-        <v>6.599736967108372</v>
+        <v>9.663458301277773</v>
       </c>
       <c r="E24">
-        <v>11.70909354488099</v>
+        <v>13.88938188403092</v>
       </c>
       <c r="F24">
-        <v>37.65263897070852</v>
+        <v>32.28112168827865</v>
       </c>
       <c r="G24">
-        <v>52.18304994465599</v>
+        <v>36.20028347563822</v>
       </c>
       <c r="H24">
-        <v>13.28441218792022</v>
+        <v>14.59558734499336</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.000870101795593</v>
+        <v>9.744254543125525</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.7468478063401</v>
+        <v>23.60900476706775</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.080500567419966</v>
+        <v>5.167123255842992</v>
       </c>
       <c r="D25">
-        <v>6.345280460999073</v>
+        <v>9.662676225994488</v>
       </c>
       <c r="E25">
-        <v>10.93728959374537</v>
+        <v>13.80823951132447</v>
       </c>
       <c r="F25">
-        <v>34.29354948402273</v>
+        <v>31.51106847167174</v>
       </c>
       <c r="G25">
-        <v>47.01110440813976</v>
+        <v>34.57607532276457</v>
       </c>
       <c r="H25">
-        <v>12.31551423367418</v>
+        <v>14.46183719371571</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.670553379796575</v>
+        <v>9.734100479248381</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.30601573933718</v>
+        <v>23.10364695539334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_68/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.920742638328592</v>
+        <v>7.364785772020419</v>
       </c>
       <c r="D2">
-        <v>9.667037446484882</v>
+        <v>6.165537928867872</v>
       </c>
       <c r="E2">
-        <v>13.75795227573954</v>
+        <v>10.3655768302165</v>
       </c>
       <c r="F2">
-        <v>30.9608575837635</v>
+        <v>31.70489571549739</v>
       </c>
       <c r="G2">
-        <v>33.36414497991077</v>
+        <v>43.01400288663956</v>
       </c>
       <c r="H2">
-        <v>14.37340777224141</v>
+        <v>11.58897704700381</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.732282694591145</v>
+        <v>6.434892672696321</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.74505173743368</v>
+        <v>22.51433923721519</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.74956410384177</v>
+        <v>6.846240073620817</v>
       </c>
       <c r="D3">
-        <v>9.673078951589259</v>
+        <v>6.048698797234995</v>
       </c>
       <c r="E3">
-        <v>13.72986351928126</v>
+        <v>9.977553410068703</v>
       </c>
       <c r="F3">
-        <v>30.60052972713553</v>
+        <v>29.88221118165856</v>
       </c>
       <c r="G3">
-        <v>32.53886467159906</v>
+        <v>40.18218401640802</v>
       </c>
       <c r="H3">
-        <v>14.3199452415204</v>
+        <v>11.09029375721316</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.734587955838133</v>
+        <v>6.280239332589726</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.51172477890332</v>
+        <v>21.25644384584416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.642857908240282</v>
+        <v>6.510974216737081</v>
       </c>
       <c r="D4">
-        <v>9.678311898181548</v>
+        <v>5.979495436363885</v>
       </c>
       <c r="E4">
-        <v>13.71559754511369</v>
+        <v>9.739703251857058</v>
       </c>
       <c r="F4">
-        <v>30.38616264653964</v>
+        <v>28.73150908099825</v>
       </c>
       <c r="G4">
-        <v>32.03238208946689</v>
+        <v>38.37358994555439</v>
       </c>
       <c r="H4">
-        <v>14.2903671573651</v>
+        <v>10.78186066665673</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.737749318922226</v>
+        <v>6.18791522463095</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.37365562155597</v>
+        <v>20.46415555633372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.599049569503739</v>
+        <v>6.370057459862494</v>
       </c>
       <c r="D5">
-        <v>9.680827631216973</v>
+        <v>5.951945167479694</v>
       </c>
       <c r="E5">
-        <v>13.71053700801866</v>
+        <v>9.642994901309271</v>
       </c>
       <c r="F5">
-        <v>30.30063607324186</v>
+        <v>28.25508874155739</v>
       </c>
       <c r="G5">
-        <v>31.82639236883861</v>
+        <v>37.61929521263318</v>
       </c>
       <c r="H5">
-        <v>14.27913879270443</v>
+        <v>10.65576510017539</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.739476756589823</v>
+        <v>6.15097747539056</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.31875788180995</v>
+        <v>20.13660032291968</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.591758020446794</v>
+        <v>6.346397632422364</v>
       </c>
       <c r="D6">
-        <v>9.681268518401264</v>
+        <v>5.947410125641209</v>
       </c>
       <c r="E6">
-        <v>13.70974227467619</v>
+        <v>9.626953351003944</v>
       </c>
       <c r="F6">
-        <v>30.2865478281831</v>
+        <v>28.17554152492364</v>
       </c>
       <c r="G6">
-        <v>31.79222273498842</v>
+        <v>37.49301260087034</v>
       </c>
       <c r="H6">
-        <v>14.27732437483258</v>
+        <v>10.63480746967423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.739790120798043</v>
+        <v>6.144886034409793</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.30972639537169</v>
+        <v>20.08193759435207</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.642268300577557</v>
+        <v>6.509091211159623</v>
       </c>
       <c r="D7">
-        <v>9.67834427424569</v>
+        <v>5.979121232817368</v>
       </c>
       <c r="E7">
-        <v>13.71552624415198</v>
+        <v>9.738397964591782</v>
       </c>
       <c r="F7">
-        <v>30.38500166663745</v>
+        <v>28.72511361591256</v>
       </c>
       <c r="G7">
-        <v>32.02960193277704</v>
+        <v>38.36348674522104</v>
       </c>
       <c r="H7">
-        <v>14.2902123775646</v>
+        <v>10.78016152106604</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.737770837578884</v>
+        <v>6.187414265150952</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.37290964086506</v>
+        <v>20.4597565453254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.862097684253725</v>
+        <v>7.18946357357703</v>
       </c>
       <c r="D8">
-        <v>9.668804505872895</v>
+        <v>6.12473325246386</v>
       </c>
       <c r="E8">
-        <v>13.74765091334335</v>
+        <v>10.23177039844082</v>
       </c>
       <c r="F8">
-        <v>30.8352511758388</v>
+        <v>31.0832142760545</v>
       </c>
       <c r="G8">
-        <v>33.07974150062982</v>
+        <v>42.05221893137321</v>
       </c>
       <c r="H8">
-        <v>14.35430495193123</v>
+        <v>11.41758284437551</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.732715306555376</v>
+        <v>6.381035107719947</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.66355957609658</v>
+        <v>22.08492388628726</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.277361014224274</v>
+        <v>8.392105458334704</v>
       </c>
       <c r="D9">
-        <v>9.662173792963259</v>
+        <v>6.429839005012765</v>
       </c>
       <c r="E9">
-        <v>13.83411694412124</v>
+        <v>11.19797791813013</v>
       </c>
       <c r="F9">
-        <v>31.76813656619898</v>
+        <v>35.4432677183291</v>
       </c>
       <c r="G9">
-        <v>35.12644522169583</v>
+        <v>48.79131590123983</v>
       </c>
       <c r="H9">
-        <v>14.50535820220195</v>
+        <v>12.64412572632528</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.736643243213058</v>
+        <v>6.78068676786252</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.2719534676994</v>
+        <v>25.10340968549683</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.569097360695009</v>
+        <v>9.198928699467094</v>
       </c>
       <c r="D10">
-        <v>9.664645213267436</v>
+        <v>6.665240540989542</v>
       </c>
       <c r="E10">
-        <v>13.9116687983004</v>
+        <v>11.90226608419376</v>
       </c>
       <c r="F10">
-        <v>32.4776198614901</v>
+        <v>38.47425587020179</v>
       </c>
       <c r="G10">
-        <v>36.60406146725428</v>
+        <v>53.43584814689499</v>
       </c>
       <c r="H10">
-        <v>14.63119705848083</v>
+        <v>13.52519136752949</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.747943953925208</v>
+        <v>7.085429777128089</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.73848429676602</v>
+        <v>27.39675231290637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.69825738323224</v>
+        <v>9.550124647747726</v>
       </c>
       <c r="D11">
-        <v>9.66735770262812</v>
+        <v>6.774660461597351</v>
       </c>
       <c r="E11">
-        <v>13.94992080461271</v>
+        <v>12.22079331499508</v>
       </c>
       <c r="F11">
-        <v>32.80423388496732</v>
+        <v>39.87508139136627</v>
       </c>
       <c r="G11">
-        <v>37.26706215651704</v>
+        <v>55.4717837442548</v>
       </c>
       <c r="H11">
-        <v>14.69152319190209</v>
+        <v>13.92094424818168</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.754903559497089</v>
+        <v>7.226337152865881</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.95410895876937</v>
+        <v>28.45219724032793</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.746609374124008</v>
+        <v>9.68090981255909</v>
       </c>
       <c r="D12">
-        <v>9.668612479726315</v>
+        <v>6.816424549090172</v>
       </c>
       <c r="E12">
-        <v>13.96482610652025</v>
+        <v>12.3411135727075</v>
       </c>
       <c r="F12">
-        <v>32.92835452901541</v>
+        <v>40.41070600877303</v>
       </c>
       <c r="G12">
-        <v>37.51653606913305</v>
+        <v>56.23200170232603</v>
       </c>
       <c r="H12">
-        <v>14.71479642540413</v>
+        <v>14.07005371619682</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.757799456284602</v>
+        <v>7.280017550329242</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.03617626535203</v>
+        <v>28.84608801258913</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.73622142367559</v>
+        <v>9.652839759781315</v>
       </c>
       <c r="D13">
-        <v>9.668332131241547</v>
+        <v>6.807415332874816</v>
       </c>
       <c r="E13">
-        <v>13.96159742434258</v>
+        <v>12.31521405763122</v>
       </c>
       <c r="F13">
-        <v>32.9016052534456</v>
+        <v>40.29566430872175</v>
       </c>
       <c r="G13">
-        <v>37.46288220902905</v>
+        <v>56.06874741963039</v>
       </c>
       <c r="H13">
-        <v>14.70976526868477</v>
+        <v>14.03797400803655</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.757164209302688</v>
+        <v>7.268442223191733</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.0184843198436</v>
+        <v>28.7615105345507</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.702246767003851</v>
+        <v>9.560928185684118</v>
       </c>
       <c r="D14">
-        <v>9.66745637695263</v>
+        <v>6.778089846576154</v>
       </c>
       <c r="E14">
-        <v>13.95113869827606</v>
+        <v>12.23069824372682</v>
       </c>
       <c r="F14">
-        <v>32.81443723296751</v>
+        <v>39.91928965050491</v>
       </c>
       <c r="G14">
-        <v>37.28761987037166</v>
+        <v>55.53454068085591</v>
       </c>
       <c r="H14">
-        <v>14.69342937958463</v>
+        <v>13.93322674410256</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.755136593949459</v>
+        <v>7.230747030853692</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.96085279118099</v>
+        <v>28.48471761170059</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.681362318579184</v>
+        <v>9.504344741312389</v>
       </c>
       <c r="D15">
-        <v>9.666949569670352</v>
+        <v>6.760169869051482</v>
       </c>
       <c r="E15">
-        <v>13.94478690389392</v>
+        <v>12.17889029670103</v>
       </c>
       <c r="F15">
-        <v>32.76109802074144</v>
+        <v>39.68782433347764</v>
       </c>
       <c r="G15">
-        <v>37.18005186979804</v>
+        <v>55.20593452152466</v>
       </c>
       <c r="H15">
-        <v>14.68347861846556</v>
+        <v>13.8689674987566</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.75392850268393</v>
+        <v>7.207699490713318</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.92560366731032</v>
+        <v>28.31442678986123</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.560580797131274</v>
+        <v>9.175664622077116</v>
       </c>
       <c r="D16">
-        <v>9.664499841887627</v>
+        <v>6.65813602860942</v>
       </c>
       <c r="E16">
-        <v>13.90922814636433</v>
+        <v>11.88140903223812</v>
       </c>
       <c r="F16">
-        <v>32.456342647335</v>
+        <v>38.38586603059879</v>
       </c>
       <c r="G16">
-        <v>36.5605245828022</v>
+        <v>53.30127262033224</v>
       </c>
       <c r="H16">
-        <v>14.6273154247838</v>
+        <v>13.49922346174128</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.747525637272311</v>
+        <v>7.076266351515614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.72445479040498</v>
+        <v>27.32695650319793</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.485539969987388</v>
+        <v>8.97002418836291</v>
       </c>
       <c r="D17">
-        <v>9.66340328699247</v>
+        <v>6.596133767417776</v>
       </c>
       <c r="E17">
-        <v>13.88817041975872</v>
+        <v>11.69840939191619</v>
       </c>
       <c r="F17">
-        <v>32.27029187686014</v>
+        <v>37.60699678779507</v>
       </c>
       <c r="G17">
-        <v>36.17791568812815</v>
+        <v>52.11332909410294</v>
       </c>
       <c r="H17">
-        <v>14.59364058654361</v>
+        <v>13.27107680130517</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.744062813389009</v>
+        <v>6.996213771912646</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.60187428054169</v>
+        <v>26.71066865462044</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.442046567105601</v>
+        <v>8.850250472442919</v>
       </c>
       <c r="D18">
-        <v>9.662922122700735</v>
+        <v>6.560691653269507</v>
       </c>
       <c r="E18">
-        <v>13.87633891779286</v>
+        <v>11.59297877625582</v>
       </c>
       <c r="F18">
-        <v>32.16365129537095</v>
+        <v>37.15543211203072</v>
       </c>
       <c r="G18">
-        <v>35.95700053572275</v>
+        <v>51.42279547997843</v>
       </c>
       <c r="H18">
-        <v>14.57456264014794</v>
+        <v>13.13937776338453</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.74224236600921</v>
+        <v>6.950384065235789</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.53169342163405</v>
+        <v>26.35227802940335</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.427264976841309</v>
+        <v>8.809438333015184</v>
       </c>
       <c r="D19">
-        <v>9.6627849147264</v>
+        <v>6.548729594575731</v>
       </c>
       <c r="E19">
-        <v>13.8723813411688</v>
+        <v>11.55725317758363</v>
       </c>
       <c r="F19">
-        <v>32.12761190950916</v>
+        <v>37.00192508146154</v>
       </c>
       <c r="G19">
-        <v>35.88206529527471</v>
+        <v>51.18773752737194</v>
       </c>
       <c r="H19">
-        <v>14.56815355859894</v>
+        <v>13.09470638681006</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.741655441399795</v>
+        <v>6.934904021456306</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.50798931408281</v>
+        <v>26.23025514653917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.493562905250963</v>
+        <v>8.992069167343645</v>
       </c>
       <c r="D20">
-        <v>9.663504544996401</v>
+        <v>6.602711309067079</v>
       </c>
       <c r="E20">
-        <v>13.8903830880996</v>
+        <v>11.71790832446873</v>
       </c>
       <c r="F20">
-        <v>32.29005976310948</v>
+        <v>37.69027913697855</v>
       </c>
       <c r="G20">
-        <v>36.21873491593509</v>
+        <v>52.24053707386854</v>
       </c>
       <c r="H20">
-        <v>14.59719531999442</v>
+        <v>13.29541285574275</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.744413717773387</v>
+        <v>7.004713376579454</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.61489016423073</v>
+        <v>26.77667784349823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.712241443374235</v>
+        <v>9.587984090680783</v>
       </c>
       <c r="D21">
-        <v>9.667707436493219</v>
+        <v>6.786694554492128</v>
       </c>
       <c r="E21">
-        <v>13.95419934077838</v>
+        <v>12.25553086327317</v>
       </c>
       <c r="F21">
-        <v>32.84002960602479</v>
+        <v>40.03003239495552</v>
       </c>
       <c r="G21">
-        <v>37.33914387723872</v>
+        <v>55.69173898330433</v>
       </c>
       <c r="H21">
-        <v>14.69821609815423</v>
+        <v>13.96401410003993</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.755725095049417</v>
+        <v>7.241810301128834</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.97776989354938</v>
+        <v>28.56617373777502</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.85188934449856</v>
+        <v>9.964633318728588</v>
       </c>
       <c r="D22">
-        <v>9.671780550157157</v>
+        <v>6.908856399018758</v>
       </c>
       <c r="E22">
-        <v>13.99835171587853</v>
+        <v>12.60515400898506</v>
       </c>
       <c r="F22">
-        <v>33.20197221035583</v>
+        <v>41.57596472994619</v>
       </c>
       <c r="G22">
-        <v>38.06201678356244</v>
+        <v>57.88485471674151</v>
       </c>
       <c r="H22">
-        <v>14.7667327204538</v>
+        <v>14.4164133274051</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.764635163502575</v>
+        <v>7.398645020263155</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.21731728487537</v>
+        <v>29.70211196851891</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.777670146970701</v>
+        <v>9.764755994518609</v>
       </c>
       <c r="D23">
-        <v>9.669485582652015</v>
+        <v>6.84348200766738</v>
       </c>
       <c r="E23">
-        <v>13.9745656859514</v>
+        <v>12.41871867246664</v>
       </c>
       <c r="F23">
-        <v>33.00860570262192</v>
+        <v>40.75460284259947</v>
       </c>
       <c r="G23">
-        <v>37.67714822793401</v>
+        <v>56.7199400180477</v>
       </c>
       <c r="H23">
-        <v>14.72994077576603</v>
+        <v>14.16612312251334</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.759741260557602</v>
+        <v>7.314767653528598</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.08927243296216</v>
+        <v>29.09884570571361</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.489936827226254</v>
+        <v>8.982107460260625</v>
       </c>
       <c r="D24">
-        <v>9.663458301277773</v>
+        <v>6.599736967108344</v>
       </c>
       <c r="E24">
-        <v>13.88938188403092</v>
+        <v>11.70909354488102</v>
       </c>
       <c r="F24">
-        <v>32.28112168827865</v>
+        <v>37.6526389707085</v>
       </c>
       <c r="G24">
-        <v>36.20028347563822</v>
+        <v>52.18304994465611</v>
       </c>
       <c r="H24">
-        <v>14.59558734499336</v>
+        <v>13.2844121879202</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.744254543125525</v>
+        <v>7.000870101795605</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.60900476706775</v>
+        <v>26.74684780634016</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.167123255842992</v>
+        <v>8.080500567419884</v>
       </c>
       <c r="D25">
-        <v>9.662676225994488</v>
+        <v>6.345280460999037</v>
       </c>
       <c r="E25">
-        <v>13.80823951132447</v>
+        <v>10.93728959374534</v>
       </c>
       <c r="F25">
-        <v>31.51106847167174</v>
+        <v>34.29354948402272</v>
       </c>
       <c r="G25">
-        <v>34.57607532276457</v>
+        <v>47.0111044081398</v>
       </c>
       <c r="H25">
-        <v>14.46183719371571</v>
+        <v>12.31551423367412</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.734100479248381</v>
+        <v>6.670553379796543</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.10364695539334</v>
+        <v>24.30601573933716</v>
       </c>
     </row>
   </sheetData>
